--- a/Raw data/Repeated measures/repeated_measures.xlsx
+++ b/Raw data/Repeated measures/repeated_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF47B739-8A70-4841-8BDF-00C761E4F38B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D2DD7-B4AB-5540-A2EA-38E9B4DB9A38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{2AF4C4D6-77D6-5347-B6FF-0A48635D202B}"/>
+    <workbookView xWindow="5680" yWindow="460" windowWidth="23120" windowHeight="16260" xr2:uid="{2AF4C4D6-77D6-5347-B6FF-0A48635D202B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="78">
   <si>
     <t>Code</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>AN14</t>
+  </si>
+  <si>
+    <t>AN6</t>
+  </si>
+  <si>
+    <t>AN9</t>
+  </si>
+  <si>
+    <t>AN10</t>
+  </si>
+  <si>
+    <t>AN11</t>
+  </si>
+  <si>
+    <t>AN12</t>
+  </si>
+  <si>
+    <t>AN13</t>
   </si>
 </sst>
 </file>
@@ -264,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,6 +395,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B98B0-9F9F-5B40-A206-995AC5F697F5}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1693,28 +1720,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="23">
         <v>13</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="23">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="23">
         <v>27</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="23" t="s">
         <v>54</v>
       </c>
       <c r="I32" s="20" t="s">
@@ -1725,28 +1752,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="23">
         <v>13</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="23">
         <v>4</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="23">
         <v>27</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="23" t="s">
         <v>54</v>
       </c>
       <c r="I33" s="20" t="s">
@@ -1757,28 +1784,28 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="23">
         <v>7</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="23">
         <v>3</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="23">
         <v>22</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="23" t="s">
         <v>54</v>
       </c>
       <c r="I34" s="20" t="s">
@@ -1789,28 +1816,28 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="23">
         <v>7</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="23">
         <v>3</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="23">
         <v>22</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="23" t="s">
         <v>54</v>
       </c>
       <c r="I35" s="20" t="s">
@@ -1821,28 +1848,28 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="23">
         <v>11</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="23">
         <v>13</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="23">
         <v>18</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="23" t="s">
         <v>54</v>
       </c>
       <c r="I36" s="20" t="s">
@@ -1853,28 +1880,28 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="23">
         <v>11</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="23">
         <v>13</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="23">
         <v>18</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>54</v>
       </c>
       <c r="I37" s="20" t="s">
@@ -1885,413 +1912,413 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="12">
-        <v>11</v>
-      </c>
-      <c r="E38" s="12">
-        <v>5</v>
-      </c>
-      <c r="F38" s="12">
-        <v>22</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="21">
+      <c r="D38" s="23">
+        <v>13</v>
+      </c>
+      <c r="E38" s="23">
+        <v>8</v>
+      </c>
+      <c r="F38" s="23">
+        <v>21</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="12">
-        <v>11</v>
-      </c>
-      <c r="E39" s="12">
-        <v>5</v>
-      </c>
-      <c r="F39" s="12">
-        <v>22</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="21">
+      <c r="D39" s="23">
+        <v>13</v>
+      </c>
+      <c r="E39" s="23">
+        <v>8</v>
+      </c>
+      <c r="F39" s="23">
+        <v>21</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="13">
-        <v>33</v>
-      </c>
-      <c r="D40" s="14">
+      <c r="A40" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="23">
+        <v>12</v>
+      </c>
+      <c r="E40" s="23">
+        <v>12</v>
+      </c>
+      <c r="F40" s="23">
+        <v>18</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40">
         <v>6</v>
       </c>
-      <c r="E40" s="14">
-        <v>11</v>
-      </c>
-      <c r="F40" s="14">
-        <v>54</v>
-      </c>
-      <c r="G40" s="13" t="s">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="23">
+        <v>12</v>
+      </c>
+      <c r="E41" s="23">
+        <v>12</v>
+      </c>
+      <c r="F41" s="23">
+        <v>18</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="21">
+      <c r="H41" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="23">
+        <v>12</v>
+      </c>
+      <c r="E42" s="23">
+        <v>19</v>
+      </c>
+      <c r="F42" s="23">
+        <v>24</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="23">
+        <v>12</v>
+      </c>
+      <c r="E43" s="23">
+        <v>19</v>
+      </c>
+      <c r="F43" s="23">
+        <v>24</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="23">
+        <v>8</v>
+      </c>
+      <c r="E44" s="23">
+        <v>18</v>
+      </c>
+      <c r="F44" s="23">
+        <v>24</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="23">
+        <v>8</v>
+      </c>
+      <c r="E45" s="23">
+        <v>18</v>
+      </c>
+      <c r="F45" s="23">
+        <v>24</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="23">
+        <v>12</v>
+      </c>
+      <c r="E46" s="23">
+        <v>18</v>
+      </c>
+      <c r="F46" s="23">
+        <v>18</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="13">
-        <v>33</v>
-      </c>
-      <c r="D41" s="14">
-        <v>6</v>
-      </c>
-      <c r="E41" s="14">
-        <v>11</v>
-      </c>
-      <c r="F41" s="14">
-        <v>54</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J41" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="23">
+        <v>12</v>
+      </c>
+      <c r="E47" s="23">
         <v>18</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="11">
-        <v>47</v>
-      </c>
-      <c r="D42" s="12">
+      <c r="F47" s="23">
+        <v>18</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="23">
+        <v>13</v>
+      </c>
+      <c r="E48" s="23">
         <v>7</v>
       </c>
-      <c r="E42" s="12">
+      <c r="F48" s="23">
+        <v>19</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="23">
+        <v>13</v>
+      </c>
+      <c r="E49" s="23">
         <v>7</v>
       </c>
-      <c r="F42" s="12">
-        <v>21</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="11">
-        <v>47</v>
-      </c>
-      <c r="D43" s="12">
-        <v>7</v>
-      </c>
-      <c r="E43" s="12">
-        <v>7</v>
-      </c>
-      <c r="F43" s="12">
-        <v>21</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J43" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="F49" s="23">
         <v>19</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="11">
-        <v>44</v>
-      </c>
-      <c r="D44" s="12">
-        <v>2</v>
-      </c>
-      <c r="E44" s="12">
-        <v>0</v>
-      </c>
-      <c r="F44" s="12">
-        <v>20</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J44" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="11">
-        <v>44</v>
-      </c>
-      <c r="D45" s="12">
-        <v>2</v>
-      </c>
-      <c r="E45" s="12">
-        <v>0</v>
-      </c>
-      <c r="F45" s="12">
-        <v>20</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J45" s="21">
+      <c r="G49" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49">
         <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="11">
-        <v>38</v>
-      </c>
-      <c r="D46" s="12">
-        <v>7</v>
-      </c>
-      <c r="E46" s="12">
-        <v>11</v>
-      </c>
-      <c r="F46" s="12">
-        <v>20</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="11">
-        <v>38</v>
-      </c>
-      <c r="D47" s="12">
-        <v>7</v>
-      </c>
-      <c r="E47" s="12">
-        <v>11</v>
-      </c>
-      <c r="F47" s="12">
-        <v>20</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J47" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="11">
-        <v>45</v>
-      </c>
-      <c r="D48" s="12">
-        <v>5</v>
-      </c>
-      <c r="E48" s="12">
-        <v>6</v>
-      </c>
-      <c r="F48" s="12">
-        <v>19</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J48" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="11">
-        <v>45</v>
-      </c>
-      <c r="D49" s="12">
-        <v>5</v>
-      </c>
-      <c r="E49" s="12">
-        <v>6</v>
-      </c>
-      <c r="F49" s="12">
-        <v>19</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J49" s="21">
-        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="11">
-        <v>46</v>
+      <c r="C50" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D50" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="12">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F50" s="12">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>58</v>
@@ -2302,28 +2329,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="11">
-        <v>46</v>
+      <c r="C51" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="D51" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="12">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F51" s="12">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I51" s="20" t="s">
         <v>59</v>
@@ -2333,28 +2360,28 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="11">
-        <v>37</v>
-      </c>
-      <c r="D52" s="12">
-        <v>8</v>
-      </c>
-      <c r="E52" s="12">
-        <v>8</v>
-      </c>
-      <c r="F52" s="12">
-        <v>27</v>
-      </c>
-      <c r="G52" s="15" t="s">
+      <c r="C52" s="13">
+        <v>33</v>
+      </c>
+      <c r="D52" s="14">
+        <v>6</v>
+      </c>
+      <c r="E52" s="14">
+        <v>11</v>
+      </c>
+      <c r="F52" s="14">
+        <v>54</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I52" s="20" t="s">
@@ -2365,28 +2392,28 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="4" t="s">
+      <c r="A53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="11">
-        <v>37</v>
-      </c>
-      <c r="D53" s="12">
-        <v>8</v>
-      </c>
-      <c r="E53" s="12">
-        <v>8</v>
-      </c>
-      <c r="F53" s="12">
-        <v>27</v>
-      </c>
-      <c r="G53" s="15" t="s">
+      <c r="C53" s="13">
+        <v>33</v>
+      </c>
+      <c r="D53" s="14">
+        <v>6</v>
+      </c>
+      <c r="E53" s="14">
+        <v>11</v>
+      </c>
+      <c r="F53" s="14">
+        <v>54</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="13" t="s">
         <v>54</v>
       </c>
       <c r="I53" s="20" t="s">
@@ -2398,19 +2425,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C54" s="11">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D54" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E54" s="12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F54" s="12">
         <v>21</v>
@@ -2425,24 +2452,24 @@
         <v>58</v>
       </c>
       <c r="J54" s="21">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="11">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D55" s="12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E55" s="12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F55" s="12">
         <v>21</v>
@@ -2457,30 +2484,30 @@
         <v>59</v>
       </c>
       <c r="J55" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D56" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F56" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>54</v>
@@ -2489,30 +2516,30 @@
         <v>58</v>
       </c>
       <c r="J56" s="21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C57" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D57" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" s="12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F57" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>54</v>
@@ -2521,161 +2548,161 @@
         <v>59</v>
       </c>
       <c r="J57" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C58" s="11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D58" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E58" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F58" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I58" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J58" s="21">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D59" s="12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E59" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F59" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I59" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J59" s="21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D60" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E60" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I60" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J60" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D61" s="12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E61" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I61" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J61" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="11">
+        <v>46</v>
+      </c>
+      <c r="D62" s="12">
+        <v>12</v>
+      </c>
+      <c r="E62" s="12">
+        <v>17</v>
+      </c>
+      <c r="F62" s="12">
         <v>49</v>
       </c>
-      <c r="D62" s="12">
-        <v>7</v>
-      </c>
-      <c r="E62" s="12">
-        <v>11</v>
-      </c>
-      <c r="F62" s="12">
-        <v>19</v>
-      </c>
       <c r="G62" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I62" s="20" t="s">
         <v>58</v>
@@ -2686,57 +2713,57 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="11">
+        <v>46</v>
+      </c>
+      <c r="D63" s="12">
+        <v>12</v>
+      </c>
+      <c r="E63" s="12">
+        <v>17</v>
+      </c>
+      <c r="F63" s="12">
         <v>49</v>
       </c>
-      <c r="D63" s="12">
-        <v>7</v>
-      </c>
-      <c r="E63" s="12">
-        <v>11</v>
-      </c>
-      <c r="F63" s="12">
-        <v>19</v>
-      </c>
       <c r="G63" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I63" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J63" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="11">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D64" s="12">
         <v>8</v>
       </c>
       <c r="E64" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F64" s="12">
-        <v>19</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>54</v>
@@ -2745,30 +2772,30 @@
         <v>58</v>
       </c>
       <c r="J64" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="11">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D65" s="12">
         <v>8</v>
       </c>
       <c r="E65" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F65" s="12">
-        <v>19</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>54</v>
@@ -2777,128 +2804,128 @@
         <v>59</v>
       </c>
       <c r="J65" s="21">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="7">
-        <v>34</v>
-      </c>
-      <c r="D66" s="16">
-        <v>2</v>
-      </c>
-      <c r="E66" s="16">
-        <v>1</v>
-      </c>
-      <c r="F66" s="16">
-        <v>30</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="7" t="s">
+      <c r="A66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="11">
+        <v>27</v>
+      </c>
+      <c r="D66" s="12">
+        <v>10</v>
+      </c>
+      <c r="E66" s="12">
+        <v>15</v>
+      </c>
+      <c r="F66" s="12">
+        <v>21</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I66" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J66" s="21">
-        <v>4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="7">
-        <v>34</v>
-      </c>
-      <c r="D67" s="16">
-        <v>2</v>
-      </c>
-      <c r="E67" s="16">
-        <v>1</v>
-      </c>
-      <c r="F67" s="16">
-        <v>30</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="7" t="s">
+      <c r="A67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="11">
+        <v>27</v>
+      </c>
+      <c r="D67" s="12">
+        <v>10</v>
+      </c>
+      <c r="E67" s="12">
+        <v>15</v>
+      </c>
+      <c r="F67" s="12">
+        <v>21</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I67" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J67" s="21">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="7">
-        <v>42</v>
-      </c>
-      <c r="D68" s="16">
-        <v>16</v>
-      </c>
-      <c r="E68" s="16">
-        <v>18</v>
-      </c>
-      <c r="F68" s="16">
-        <v>21</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H68" s="7" t="s">
+      <c r="A68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="11">
+        <v>46</v>
+      </c>
+      <c r="D68" s="12">
+        <v>5</v>
+      </c>
+      <c r="E68" s="12">
+        <v>9</v>
+      </c>
+      <c r="F68" s="12">
+        <v>24</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I68" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J68" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="7">
-        <v>42</v>
-      </c>
-      <c r="D69" s="16">
-        <v>16</v>
-      </c>
-      <c r="E69" s="16">
-        <v>18</v>
-      </c>
-      <c r="F69" s="16">
-        <v>21</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" s="7" t="s">
+      <c r="A69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="11">
+        <v>46</v>
+      </c>
+      <c r="D69" s="12">
+        <v>5</v>
+      </c>
+      <c r="E69" s="12">
+        <v>9</v>
+      </c>
+      <c r="F69" s="12">
+        <v>24</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I69" s="20" t="s">
@@ -2909,279 +2936,279 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="7">
+      <c r="A70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="11">
         <v>46</v>
       </c>
-      <c r="D70" s="16">
-        <v>13</v>
-      </c>
-      <c r="E70" s="16">
-        <v>20</v>
-      </c>
-      <c r="F70" s="16">
+      <c r="D70" s="12">
+        <v>4</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
+        <v>22</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J70" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="11">
+        <v>46</v>
+      </c>
+      <c r="D71" s="12">
+        <v>4</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>22</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J71" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="11">
+        <v>40</v>
+      </c>
+      <c r="D72" s="12">
+        <v>8</v>
+      </c>
+      <c r="E72" s="12">
+        <v>7</v>
+      </c>
+      <c r="F72" s="12">
+        <v>18</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="11">
+        <v>40</v>
+      </c>
+      <c r="D73" s="12">
+        <v>8</v>
+      </c>
+      <c r="E73" s="12">
+        <v>7</v>
+      </c>
+      <c r="F73" s="12">
+        <v>18</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="11">
+        <v>49</v>
+      </c>
+      <c r="D74" s="12">
+        <v>7</v>
+      </c>
+      <c r="E74" s="12">
+        <v>11</v>
+      </c>
+      <c r="F74" s="12">
         <v>19</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J70" s="21">
+      <c r="G74" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J74" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="11">
+        <v>49</v>
+      </c>
+      <c r="D75" s="12">
+        <v>7</v>
+      </c>
+      <c r="E75" s="12">
+        <v>11</v>
+      </c>
+      <c r="F75" s="12">
+        <v>19</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J75" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C71" s="7">
-        <v>46</v>
-      </c>
-      <c r="D71" s="16">
-        <v>13</v>
-      </c>
-      <c r="E71" s="16">
-        <v>20</v>
-      </c>
-      <c r="F71" s="16">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="11">
+        <v>43</v>
+      </c>
+      <c r="D76" s="12">
+        <v>8</v>
+      </c>
+      <c r="E76" s="12">
+        <v>7</v>
+      </c>
+      <c r="F76" s="12">
         <v>19</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J71" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C72" s="7">
-        <v>41</v>
-      </c>
-      <c r="D72" s="16">
-        <v>9</v>
-      </c>
-      <c r="E72" s="16">
-        <v>13</v>
-      </c>
-      <c r="F72" s="16">
-        <v>39</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J72" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C73" s="7">
-        <v>41</v>
-      </c>
-      <c r="D73" s="16">
-        <v>9</v>
-      </c>
-      <c r="E73" s="16">
-        <v>13</v>
-      </c>
-      <c r="F73" s="16">
-        <v>39</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J73" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="7">
-        <v>40</v>
-      </c>
-      <c r="D74" s="16">
-        <v>9</v>
-      </c>
-      <c r="E74" s="16">
-        <v>14</v>
-      </c>
-      <c r="F74" s="16">
+      <c r="G76" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J76" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="11">
+        <v>43</v>
+      </c>
+      <c r="D77" s="12">
+        <v>8</v>
+      </c>
+      <c r="E77" s="12">
+        <v>7</v>
+      </c>
+      <c r="F77" s="12">
         <v>19</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J74" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" s="7">
-        <v>40</v>
-      </c>
-      <c r="D75" s="16">
-        <v>9</v>
-      </c>
-      <c r="E75" s="16">
-        <v>14</v>
-      </c>
-      <c r="F75" s="16">
-        <v>19</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J75" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="7">
-        <v>41</v>
-      </c>
-      <c r="D76" s="16">
-        <v>8</v>
-      </c>
-      <c r="E76" s="16">
-        <v>6</v>
-      </c>
-      <c r="F76" s="16">
-        <v>21</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J76" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="7">
-        <v>41</v>
-      </c>
-      <c r="D77" s="16">
-        <v>8</v>
-      </c>
-      <c r="E77" s="16">
-        <v>6</v>
-      </c>
-      <c r="F77" s="16">
-        <v>21</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="7" t="s">
+      <c r="G77" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>54</v>
       </c>
       <c r="I77" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J77" s="21">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C78" s="7">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D78" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="16">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>55</v>
@@ -3193,27 +3220,27 @@
         <v>58</v>
       </c>
       <c r="J78" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C79" s="7">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D79" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" s="16">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>55</v>
@@ -3225,27 +3252,27 @@
         <v>59</v>
       </c>
       <c r="J79" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C80" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D80" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E80" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F80" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>55</v>
@@ -3257,27 +3284,27 @@
         <v>58</v>
       </c>
       <c r="J80" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C81" s="7">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D81" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E81" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F81" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>55</v>
@@ -3289,27 +3316,27 @@
         <v>59</v>
       </c>
       <c r="J81" s="21">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C82" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D82" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E82" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F82" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
@@ -3321,27 +3348,27 @@
         <v>58</v>
       </c>
       <c r="J82" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C83" s="7">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D83" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F83" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>55</v>
@@ -3353,65 +3380,65 @@
         <v>59</v>
       </c>
       <c r="J83" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D84" s="16">
         <v>9</v>
       </c>
       <c r="E84" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F84" s="16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I84" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J84" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C85" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D85" s="16">
         <v>9</v>
       </c>
       <c r="E85" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F85" s="16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I85" s="20" t="s">
         <v>59</v>
@@ -3420,93 +3447,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="7">
         <v>40</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="D86" s="16">
+        <v>9</v>
+      </c>
+      <c r="E86" s="16">
+        <v>14</v>
+      </c>
+      <c r="F86" s="16">
+        <v>19</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J86" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="7">
-        <v>32</v>
-      </c>
-      <c r="D86" s="16">
-        <v>1</v>
-      </c>
-      <c r="E86" s="16">
-        <v>4</v>
-      </c>
-      <c r="F86" s="16">
-        <v>20</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J86" s="21">
+      <c r="C87" s="7">
+        <v>40</v>
+      </c>
+      <c r="D87" s="16">
+        <v>9</v>
+      </c>
+      <c r="E87" s="16">
+        <v>14</v>
+      </c>
+      <c r="F87" s="16">
+        <v>19</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J87" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="7">
-        <v>32</v>
-      </c>
-      <c r="D87" s="16">
-        <v>1</v>
-      </c>
-      <c r="E87" s="16">
-        <v>4</v>
-      </c>
-      <c r="F87" s="16">
-        <v>20</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J87" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" s="19">
+      <c r="C88" s="7">
+        <v>41</v>
+      </c>
+      <c r="D88" s="16">
         <v>8</v>
       </c>
-      <c r="E88" s="19">
-        <v>11</v>
-      </c>
-      <c r="F88" s="19">
-        <v>26</v>
-      </c>
-      <c r="G88" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H88" s="17" t="s">
+      <c r="E88" s="16">
+        <v>6</v>
+      </c>
+      <c r="F88" s="16">
+        <v>21</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I88" s="20" t="s">
@@ -3515,109 +3542,94 @@
       <c r="J88" s="21">
         <v>3</v>
       </c>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-    </row>
-    <row r="89" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B89" s="17" t="s">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="19">
+      <c r="C89" s="7">
+        <v>41</v>
+      </c>
+      <c r="D89" s="16">
         <v>8</v>
       </c>
-      <c r="E89" s="19">
-        <v>11</v>
-      </c>
-      <c r="F89" s="19">
-        <v>26</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H89" s="17" t="s">
+      <c r="E89" s="16">
+        <v>6</v>
+      </c>
+      <c r="F89" s="16">
+        <v>21</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I89" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J89" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="7">
+        <v>47</v>
+      </c>
+      <c r="D90" s="16">
         <v>3</v>
       </c>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-    </row>
-    <row r="90" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" s="17" t="s">
+      <c r="E90" s="16">
+        <v>3</v>
+      </c>
+      <c r="F90" s="16">
+        <v>21</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J90" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" s="19">
-        <v>10</v>
-      </c>
-      <c r="E90" s="19">
-        <v>14</v>
-      </c>
-      <c r="F90" s="19">
-        <v>23</v>
-      </c>
-      <c r="G90" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I90" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J90" s="21">
-        <v>3.5</v>
-      </c>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-    </row>
-    <row r="91" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" s="19">
-        <v>10</v>
-      </c>
-      <c r="E91" s="19">
-        <v>14</v>
-      </c>
-      <c r="F91" s="19">
-        <v>23</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H91" s="17" t="s">
+      <c r="C91" s="7">
+        <v>47</v>
+      </c>
+      <c r="D91" s="16">
+        <v>3</v>
+      </c>
+      <c r="E91" s="16">
+        <v>3</v>
+      </c>
+      <c r="F91" s="16">
+        <v>21</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="7" t="s">
         <v>54</v>
       </c>
       <c r="I91" s="20" t="s">
@@ -3626,311 +3638,266 @@
       <c r="J91" s="21">
         <v>3</v>
       </c>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-    </row>
-    <row r="92" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="17" t="s">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D92" s="19">
-        <v>11</v>
-      </c>
-      <c r="E92" s="19">
+      <c r="C92" s="7">
+        <v>29</v>
+      </c>
+      <c r="D92" s="16">
+        <v>12</v>
+      </c>
+      <c r="E92" s="16">
+        <v>16</v>
+      </c>
+      <c r="F92" s="16">
+        <v>18</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J92" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="7">
+        <v>29</v>
+      </c>
+      <c r="D93" s="16">
+        <v>12</v>
+      </c>
+      <c r="E93" s="16">
+        <v>16</v>
+      </c>
+      <c r="F93" s="16">
+        <v>18</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J93" s="21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="7">
+        <v>48</v>
+      </c>
+      <c r="D94" s="16">
+        <v>9</v>
+      </c>
+      <c r="E94" s="16">
+        <v>10</v>
+      </c>
+      <c r="F94" s="16">
+        <v>21</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J94" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="7">
+        <v>48</v>
+      </c>
+      <c r="D95" s="16">
+        <v>9</v>
+      </c>
+      <c r="E95" s="16">
+        <v>10</v>
+      </c>
+      <c r="F95" s="16">
+        <v>21</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J95" s="21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="7">
+        <v>48</v>
+      </c>
+      <c r="D96" s="16">
+        <v>9</v>
+      </c>
+      <c r="E96" s="16">
         <v>14</v>
       </c>
-      <c r="F92" s="19">
-        <v>18</v>
-      </c>
-      <c r="G92" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I92" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J92" s="21">
+      <c r="F96" s="16">
+        <v>20</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J96" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="7">
+        <v>48</v>
+      </c>
+      <c r="D97" s="16">
+        <v>9</v>
+      </c>
+      <c r="E97" s="16">
+        <v>14</v>
+      </c>
+      <c r="F97" s="16">
+        <v>20</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J97" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="7">
+        <v>32</v>
+      </c>
+      <c r="D98" s="16">
+        <v>1</v>
+      </c>
+      <c r="E98" s="16">
+        <v>4</v>
+      </c>
+      <c r="F98" s="16">
+        <v>20</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J98" s="21">
         <v>3</v>
       </c>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-    </row>
-    <row r="93" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="17" t="s">
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" s="19">
-        <v>11</v>
-      </c>
-      <c r="E93" s="19">
-        <v>14</v>
-      </c>
-      <c r="F93" s="19">
-        <v>18</v>
-      </c>
-      <c r="G93" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I93" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J93" s="21">
+      <c r="C99" s="7">
+        <v>32</v>
+      </c>
+      <c r="D99" s="16">
+        <v>1</v>
+      </c>
+      <c r="E99" s="16">
+        <v>4</v>
+      </c>
+      <c r="F99" s="16">
+        <v>20</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J99" s="21">
         <v>3.5</v>
       </c>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-    </row>
-    <row r="94" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" s="19">
-        <v>6</v>
-      </c>
-      <c r="E94" s="19">
-        <v>4</v>
-      </c>
-      <c r="F94" s="19">
-        <v>18</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I94" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J94" s="21">
-        <v>3</v>
-      </c>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-    </row>
-    <row r="95" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="19">
-        <v>6</v>
-      </c>
-      <c r="E95" s="19">
-        <v>4</v>
-      </c>
-      <c r="F95" s="19">
-        <v>18</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I95" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J95" s="21">
-        <v>3</v>
-      </c>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-    </row>
-    <row r="96" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" s="19">
-        <v>12</v>
-      </c>
-      <c r="E96" s="19">
-        <v>17</v>
-      </c>
-      <c r="F96" s="19">
-        <v>18</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I96" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J96" s="21">
-        <v>4</v>
-      </c>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
-    </row>
-    <row r="97" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" s="19">
-        <v>12</v>
-      </c>
-      <c r="E97" s="19">
-        <v>17</v>
-      </c>
-      <c r="F97" s="19">
-        <v>18</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J97" s="21">
-        <v>5</v>
-      </c>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-    </row>
-    <row r="98" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B98" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" s="19">
-        <v>12</v>
-      </c>
-      <c r="E98" s="19">
-        <v>14</v>
-      </c>
-      <c r="F98" s="19">
-        <v>18</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J98" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-    </row>
-    <row r="99" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" s="19">
-        <v>12</v>
-      </c>
-      <c r="E99" s="19">
-        <v>14</v>
-      </c>
-      <c r="F99" s="19">
-        <v>18</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I99" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J99" s="21">
-        <v>2</v>
-      </c>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
     </row>
     <row r="100" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>45</v>
@@ -3939,16 +3906,16 @@
         <v>52</v>
       </c>
       <c r="D100" s="19">
+        <v>8</v>
+      </c>
+      <c r="E100" s="19">
         <v>11</v>
       </c>
-      <c r="E100" s="19">
-        <v>15</v>
-      </c>
       <c r="F100" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H100" s="17" t="s">
         <v>54</v>
@@ -3957,7 +3924,7 @@
         <v>58</v>
       </c>
       <c r="J100" s="21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K100" s="21"/>
       <c r="L100" s="21"/>
@@ -3967,7 +3934,7 @@
     </row>
     <row r="101" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B101" s="17" t="s">
         <v>45</v>
@@ -3976,16 +3943,16 @@
         <v>52</v>
       </c>
       <c r="D101" s="19">
+        <v>8</v>
+      </c>
+      <c r="E101" s="19">
         <v>11</v>
       </c>
-      <c r="E101" s="19">
-        <v>15</v>
-      </c>
       <c r="F101" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H101" s="17" t="s">
         <v>54</v>
@@ -3994,7 +3961,7 @@
         <v>59</v>
       </c>
       <c r="J101" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K101" s="21"/>
       <c r="L101" s="21"/>
@@ -4002,6 +3969,450 @@
       <c r="N101" s="21"/>
       <c r="O101" s="21"/>
     </row>
+    <row r="102" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="19">
+        <v>10</v>
+      </c>
+      <c r="E102" s="19">
+        <v>14</v>
+      </c>
+      <c r="F102" s="19">
+        <v>23</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+    </row>
+    <row r="103" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="19">
+        <v>10</v>
+      </c>
+      <c r="E103" s="19">
+        <v>14</v>
+      </c>
+      <c r="F103" s="19">
+        <v>23</v>
+      </c>
+      <c r="G103" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J103" s="21">
+        <v>3</v>
+      </c>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+    </row>
+    <row r="104" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="19">
+        <v>11</v>
+      </c>
+      <c r="E104" s="19">
+        <v>14</v>
+      </c>
+      <c r="F104" s="19">
+        <v>18</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I104" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J104" s="21">
+        <v>3</v>
+      </c>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+    </row>
+    <row r="105" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="19">
+        <v>11</v>
+      </c>
+      <c r="E105" s="19">
+        <v>14</v>
+      </c>
+      <c r="F105" s="19">
+        <v>18</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J105" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+    </row>
+    <row r="106" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="19">
+        <v>6</v>
+      </c>
+      <c r="E106" s="19">
+        <v>4</v>
+      </c>
+      <c r="F106" s="19">
+        <v>18</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J106" s="21">
+        <v>3</v>
+      </c>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+    </row>
+    <row r="107" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="19">
+        <v>6</v>
+      </c>
+      <c r="E107" s="19">
+        <v>4</v>
+      </c>
+      <c r="F107" s="19">
+        <v>18</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="21">
+        <v>3</v>
+      </c>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+    </row>
+    <row r="108" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="19">
+        <v>12</v>
+      </c>
+      <c r="E108" s="19">
+        <v>17</v>
+      </c>
+      <c r="F108" s="19">
+        <v>18</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H108" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J108" s="21">
+        <v>4</v>
+      </c>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+    </row>
+    <row r="109" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="19">
+        <v>12</v>
+      </c>
+      <c r="E109" s="19">
+        <v>17</v>
+      </c>
+      <c r="F109" s="19">
+        <v>18</v>
+      </c>
+      <c r="G109" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J109" s="21">
+        <v>5</v>
+      </c>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+    </row>
+    <row r="110" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="19">
+        <v>12</v>
+      </c>
+      <c r="E110" s="19">
+        <v>14</v>
+      </c>
+      <c r="F110" s="19">
+        <v>18</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J110" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+    </row>
+    <row r="111" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="19">
+        <v>12</v>
+      </c>
+      <c r="E111" s="19">
+        <v>14</v>
+      </c>
+      <c r="F111" s="19">
+        <v>18</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I111" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J111" s="21">
+        <v>2</v>
+      </c>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+    </row>
+    <row r="112" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="19">
+        <v>11</v>
+      </c>
+      <c r="E112" s="19">
+        <v>15</v>
+      </c>
+      <c r="F112" s="19">
+        <v>18</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I112" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J112" s="21">
+        <v>10</v>
+      </c>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+    </row>
+    <row r="113" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="19">
+        <v>11</v>
+      </c>
+      <c r="E113" s="19">
+        <v>15</v>
+      </c>
+      <c r="F113" s="19">
+        <v>18</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J113" s="21">
+        <v>5</v>
+      </c>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw data/Repeated measures/repeated_measures.xlsx
+++ b/Raw data/Repeated measures/repeated_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5D2DD7-B4AB-5540-A2EA-38E9B4DB9A38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C30235-F625-7E4C-B15D-E351F58199BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="460" windowWidth="23120" windowHeight="16260" xr2:uid="{2AF4C4D6-77D6-5347-B6FF-0A48635D202B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16260" xr2:uid="{2AF4C4D6-77D6-5347-B6FF-0A48635D202B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="80">
   <si>
     <t>Code</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>AN13</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>AM2</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -332,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +409,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B98B0-9F9F-5B40-A206-995AC5F697F5}">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:J49"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3192,151 +3213,151 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="7">
-        <v>34</v>
-      </c>
-      <c r="D78" s="16">
-        <v>2</v>
-      </c>
-      <c r="E78" s="16">
-        <v>1</v>
-      </c>
-      <c r="F78" s="16">
-        <v>30</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="7" t="s">
+      <c r="A78" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="26">
+        <v>11</v>
+      </c>
+      <c r="E78" s="26">
+        <v>9</v>
+      </c>
+      <c r="F78" s="26">
+        <v>23</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="25" t="s">
         <v>54</v>
       </c>
       <c r="I78" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J78" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="26">
+        <v>11</v>
+      </c>
+      <c r="E79" s="26">
+        <v>9</v>
+      </c>
+      <c r="F79" s="26">
+        <v>23</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C79" s="7">
-        <v>34</v>
-      </c>
-      <c r="D79" s="16">
-        <v>2</v>
-      </c>
-      <c r="E79" s="16">
-        <v>1</v>
-      </c>
-      <c r="F79" s="16">
-        <v>30</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J79" s="21">
+      <c r="E80" s="26">
+        <v>13</v>
+      </c>
+      <c r="F80" s="26">
+        <v>27</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I80" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J80" s="21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="7">
-        <v>42</v>
-      </c>
-      <c r="D80" s="16">
-        <v>16</v>
-      </c>
-      <c r="E80" s="16">
-        <v>18</v>
-      </c>
-      <c r="F80" s="16">
-        <v>21</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J80" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="7">
-        <v>42</v>
-      </c>
-      <c r="D81" s="16">
-        <v>16</v>
-      </c>
-      <c r="E81" s="16">
-        <v>18</v>
-      </c>
-      <c r="F81" s="16">
-        <v>21</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" s="7" t="s">
+      <c r="E81" s="26">
+        <v>13</v>
+      </c>
+      <c r="F81" s="26">
+        <v>27</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="25" t="s">
         <v>54</v>
       </c>
       <c r="I81" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J81" s="21">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C82" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D82" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E82" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F82" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>55</v>
@@ -3353,22 +3374,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C83" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D83" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E83" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F83" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>55</v>
@@ -3380,27 +3401,27 @@
         <v>59</v>
       </c>
       <c r="J83" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D84" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E84" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F84" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>55</v>
@@ -3412,27 +3433,27 @@
         <v>58</v>
       </c>
       <c r="J84" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C85" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E85" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F85" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>55</v>
@@ -3444,24 +3465,24 @@
         <v>59</v>
       </c>
       <c r="J85" s="21">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C86" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D86" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F86" s="16">
         <v>19</v>
@@ -3481,19 +3502,19 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C87" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D87" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F87" s="16">
         <v>19</v>
@@ -3508,12 +3529,12 @@
         <v>59</v>
       </c>
       <c r="J87" s="21">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>45</v>
@@ -3522,13 +3543,13 @@
         <v>41</v>
       </c>
       <c r="D88" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E88" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F88" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>55</v>
@@ -3545,7 +3566,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>45</v>
@@ -3554,13 +3575,13 @@
         <v>41</v>
       </c>
       <c r="D89" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E89" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F89" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>55</v>
@@ -3572,27 +3593,27 @@
         <v>59</v>
       </c>
       <c r="J89" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D90" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E90" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F90" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>55</v>
@@ -3604,27 +3625,27 @@
         <v>58</v>
       </c>
       <c r="J90" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C91" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D91" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E91" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F91" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>55</v>
@@ -3641,22 +3662,22 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C92" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D92" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E92" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F92" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>55</v>
@@ -3668,27 +3689,27 @@
         <v>58</v>
       </c>
       <c r="J92" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C93" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D93" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E93" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F93" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>55</v>
@@ -3700,24 +3721,24 @@
         <v>59</v>
       </c>
       <c r="J93" s="21">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C94" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D94" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E94" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F94" s="16">
         <v>21</v>
@@ -3732,24 +3753,24 @@
         <v>58</v>
       </c>
       <c r="J94" s="21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D95" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E95" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F95" s="16">
         <v>21</v>
@@ -3764,123 +3785,123 @@
         <v>59</v>
       </c>
       <c r="J95" s="21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="7">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D96" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E96" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F96" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I96" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J96" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C97" s="7">
+        <v>29</v>
+      </c>
+      <c r="D97" s="16">
+        <v>12</v>
+      </c>
+      <c r="E97" s="16">
+        <v>16</v>
+      </c>
+      <c r="F97" s="16">
+        <v>18</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J97" s="21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="7">
         <v>48</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D98" s="16">
         <v>9</v>
       </c>
-      <c r="E97" s="16">
-        <v>14</v>
-      </c>
-      <c r="F97" s="16">
-        <v>20</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J97" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="E98" s="16">
+        <v>10</v>
+      </c>
+      <c r="F98" s="16">
+        <v>21</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J98" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="7">
-        <v>32</v>
-      </c>
-      <c r="D98" s="16">
-        <v>1</v>
-      </c>
-      <c r="E98" s="16">
-        <v>4</v>
-      </c>
-      <c r="F98" s="16">
-        <v>20</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J98" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C99" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D99" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E99" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F99" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>55</v>
@@ -3895,157 +3916,137 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="17" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D100" s="19">
-        <v>8</v>
-      </c>
-      <c r="E100" s="19">
-        <v>11</v>
-      </c>
-      <c r="F100" s="19">
-        <v>26</v>
-      </c>
-      <c r="G100" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>54</v>
+      <c r="C100" s="7">
+        <v>48</v>
+      </c>
+      <c r="D100" s="16">
+        <v>9</v>
+      </c>
+      <c r="E100" s="16">
+        <v>14</v>
+      </c>
+      <c r="F100" s="16">
+        <v>20</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I100" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J100" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="7">
+        <v>48</v>
+      </c>
+      <c r="D101" s="16">
+        <v>9</v>
+      </c>
+      <c r="E101" s="16">
+        <v>14</v>
+      </c>
+      <c r="F101" s="16">
+        <v>20</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="7">
+        <v>32</v>
+      </c>
+      <c r="D102" s="16">
+        <v>1</v>
+      </c>
+      <c r="E102" s="16">
+        <v>4</v>
+      </c>
+      <c r="F102" s="16">
+        <v>20</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" s="21">
         <v>3</v>
       </c>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-    </row>
-    <row r="101" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="17" t="s">
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" s="19">
-        <v>8</v>
-      </c>
-      <c r="E101" s="19">
-        <v>11</v>
-      </c>
-      <c r="F101" s="19">
-        <v>26</v>
-      </c>
-      <c r="G101" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="21">
-        <v>3</v>
-      </c>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-    </row>
-    <row r="102" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" s="19">
-        <v>10</v>
-      </c>
-      <c r="E102" s="19">
-        <v>14</v>
-      </c>
-      <c r="F102" s="19">
-        <v>23</v>
-      </c>
-      <c r="G102" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J102" s="21">
+      <c r="C103" s="7">
+        <v>32</v>
+      </c>
+      <c r="D103" s="16">
+        <v>1</v>
+      </c>
+      <c r="E103" s="16">
+        <v>4</v>
+      </c>
+      <c r="F103" s="16">
+        <v>20</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J103" s="21">
         <v>3.5</v>
       </c>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
-    </row>
-    <row r="103" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" s="19">
-        <v>10</v>
-      </c>
-      <c r="E103" s="19">
-        <v>14</v>
-      </c>
-      <c r="F103" s="19">
-        <v>23</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I103" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J103" s="21">
-        <v>3</v>
-      </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
     </row>
     <row r="104" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" s="17" t="s">
         <v>45</v>
@@ -4054,16 +4055,16 @@
         <v>52</v>
       </c>
       <c r="D104" s="19">
+        <v>8</v>
+      </c>
+      <c r="E104" s="19">
         <v>11</v>
       </c>
-      <c r="E104" s="19">
-        <v>14</v>
-      </c>
       <c r="F104" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G104" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H104" s="17" t="s">
         <v>54</v>
@@ -4082,7 +4083,7 @@
     </row>
     <row r="105" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>45</v>
@@ -4091,16 +4092,16 @@
         <v>52</v>
       </c>
       <c r="D105" s="19">
+        <v>8</v>
+      </c>
+      <c r="E105" s="19">
         <v>11</v>
       </c>
-      <c r="E105" s="19">
-        <v>14</v>
-      </c>
       <c r="F105" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H105" s="17" t="s">
         <v>54</v>
@@ -4109,7 +4110,7 @@
         <v>59</v>
       </c>
       <c r="J105" s="21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K105" s="21"/>
       <c r="L105" s="21"/>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="106" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B106" s="17" t="s">
         <v>45</v>
@@ -4128,13 +4129,13 @@
         <v>52</v>
       </c>
       <c r="D106" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E106" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F106" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G106" s="17" t="s">
         <v>55</v>
@@ -4146,7 +4147,7 @@
         <v>58</v>
       </c>
       <c r="J106" s="21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
@@ -4156,7 +4157,7 @@
     </row>
     <row r="107" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>45</v>
@@ -4165,13 +4166,13 @@
         <v>52</v>
       </c>
       <c r="D107" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E107" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F107" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G107" s="17" t="s">
         <v>55</v>
@@ -4193,7 +4194,7 @@
     </row>
     <row r="108" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>45</v>
@@ -4202,10 +4203,10 @@
         <v>52</v>
       </c>
       <c r="D108" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E108" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F108" s="19">
         <v>18</v>
@@ -4220,7 +4221,7 @@
         <v>58</v>
       </c>
       <c r="J108" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
@@ -4230,7 +4231,7 @@
     </row>
     <row r="109" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>45</v>
@@ -4239,10 +4240,10 @@
         <v>52</v>
       </c>
       <c r="D109" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E109" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F109" s="19">
         <v>18</v>
@@ -4257,7 +4258,7 @@
         <v>59</v>
       </c>
       <c r="J109" s="21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
@@ -4267,7 +4268,7 @@
     </row>
     <row r="110" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>45</v>
@@ -4276,10 +4277,10 @@
         <v>52</v>
       </c>
       <c r="D110" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E110" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F110" s="19">
         <v>18</v>
@@ -4294,7 +4295,7 @@
         <v>58</v>
       </c>
       <c r="J110" s="21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
@@ -4304,7 +4305,7 @@
     </row>
     <row r="111" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>45</v>
@@ -4313,10 +4314,10 @@
         <v>52</v>
       </c>
       <c r="D111" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E111" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F111" s="19">
         <v>18</v>
@@ -4331,7 +4332,7 @@
         <v>59</v>
       </c>
       <c r="J111" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K111" s="21"/>
       <c r="L111" s="21"/>
@@ -4341,7 +4342,7 @@
     </row>
     <row r="112" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>45</v>
@@ -4350,10 +4351,10 @@
         <v>52</v>
       </c>
       <c r="D112" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F112" s="19">
         <v>18</v>
@@ -4368,7 +4369,7 @@
         <v>58</v>
       </c>
       <c r="J112" s="21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K112" s="21"/>
       <c r="L112" s="21"/>
@@ -4378,7 +4379,7 @@
     </row>
     <row r="113" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>45</v>
@@ -4387,10 +4388,10 @@
         <v>52</v>
       </c>
       <c r="D113" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F113" s="19">
         <v>18</v>
@@ -4413,6 +4414,154 @@
       <c r="N113" s="21"/>
       <c r="O113" s="21"/>
     </row>
+    <row r="114" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="19">
+        <v>12</v>
+      </c>
+      <c r="E114" s="19">
+        <v>14</v>
+      </c>
+      <c r="F114" s="19">
+        <v>18</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I114" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J114" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+    </row>
+    <row r="115" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" s="19">
+        <v>12</v>
+      </c>
+      <c r="E115" s="19">
+        <v>14</v>
+      </c>
+      <c r="F115" s="19">
+        <v>18</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H115" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J115" s="21">
+        <v>2</v>
+      </c>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+    </row>
+    <row r="116" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="19">
+        <v>11</v>
+      </c>
+      <c r="E116" s="19">
+        <v>15</v>
+      </c>
+      <c r="F116" s="19">
+        <v>18</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H116" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I116" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J116" s="21">
+        <v>10</v>
+      </c>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+    </row>
+    <row r="117" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" s="19">
+        <v>11</v>
+      </c>
+      <c r="E117" s="19">
+        <v>15</v>
+      </c>
+      <c r="F117" s="19">
+        <v>18</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J117" s="21">
+        <v>5</v>
+      </c>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw data/Repeated measures/repeated_measures.xlsx
+++ b/Raw data/Repeated measures/repeated_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C30235-F625-7E4C-B15D-E351F58199BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D8319B-C580-614E-B714-8319166C5A5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16260" xr2:uid="{2AF4C4D6-77D6-5347-B6FF-0A48635D202B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="82">
   <si>
     <t>Code</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>AM2</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AM7</t>
   </si>
 </sst>
 </file>
@@ -734,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75B98B0-9F9F-5B40-A206-995AC5F697F5}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3341,151 +3347,151 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="7">
-        <v>34</v>
-      </c>
-      <c r="D82" s="16">
-        <v>2</v>
-      </c>
-      <c r="E82" s="16">
-        <v>1</v>
-      </c>
-      <c r="F82" s="16">
-        <v>30</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H82" s="7" t="s">
+      <c r="A82" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" s="26">
+        <v>18</v>
+      </c>
+      <c r="E82" s="26">
+        <v>13</v>
+      </c>
+      <c r="F82" s="26">
+        <v>20</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" s="25" t="s">
         <v>54</v>
       </c>
       <c r="I82" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J82" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="26">
+        <v>18</v>
+      </c>
+      <c r="E83" s="26">
+        <v>13</v>
+      </c>
+      <c r="F83" s="26">
+        <v>20</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J83" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="26">
+        <v>6</v>
+      </c>
+      <c r="E84" s="26">
+        <v>7</v>
+      </c>
+      <c r="F84" s="26">
+        <v>20</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J84" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="7">
-        <v>34</v>
-      </c>
-      <c r="D83" s="16">
-        <v>2</v>
-      </c>
-      <c r="E83" s="16">
-        <v>1</v>
-      </c>
-      <c r="F83" s="16">
-        <v>30</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J83" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="7">
-        <v>42</v>
-      </c>
-      <c r="D84" s="16">
-        <v>16</v>
-      </c>
-      <c r="E84" s="16">
-        <v>18</v>
-      </c>
-      <c r="F84" s="16">
-        <v>21</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J84" s="21">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" s="26">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="7">
-        <v>42</v>
-      </c>
-      <c r="D85" s="16">
-        <v>16</v>
-      </c>
-      <c r="E85" s="16">
-        <v>18</v>
-      </c>
-      <c r="F85" s="16">
-        <v>21</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="7" t="s">
+      <c r="E85" s="26">
+        <v>7</v>
+      </c>
+      <c r="F85" s="26">
+        <v>20</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="25" t="s">
         <v>54</v>
       </c>
       <c r="I85" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J85" s="21">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C86" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D86" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E86" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F86" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>55</v>
@@ -3502,22 +3508,22 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C87" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D87" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E87" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F87" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>55</v>
@@ -3529,27 +3535,27 @@
         <v>59</v>
       </c>
       <c r="J87" s="21">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C88" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D88" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E88" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F88" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>55</v>
@@ -3561,27 +3567,27 @@
         <v>58</v>
       </c>
       <c r="J88" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C89" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D89" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E89" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F89" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>55</v>
@@ -3593,24 +3599,24 @@
         <v>59</v>
       </c>
       <c r="J89" s="21">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C90" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D90" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E90" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F90" s="16">
         <v>19</v>
@@ -3630,19 +3636,19 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C91" s="7">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D91" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F91" s="16">
         <v>19</v>
@@ -3657,12 +3663,12 @@
         <v>59</v>
       </c>
       <c r="J91" s="21">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>45</v>
@@ -3671,13 +3677,13 @@
         <v>41</v>
       </c>
       <c r="D92" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F92" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>55</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>45</v>
@@ -3703,13 +3709,13 @@
         <v>41</v>
       </c>
       <c r="D93" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E93" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F93" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>55</v>
@@ -3721,27 +3727,27 @@
         <v>59</v>
       </c>
       <c r="J93" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C94" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D94" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E94" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F94" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>55</v>
@@ -3753,27 +3759,27 @@
         <v>58</v>
       </c>
       <c r="J94" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="7">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D95" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E95" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F95" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>55</v>
@@ -3790,22 +3796,22 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D96" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E96" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F96" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>55</v>
@@ -3817,27 +3823,27 @@
         <v>58</v>
       </c>
       <c r="J96" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C97" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D97" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E97" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F97" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>55</v>
@@ -3849,24 +3855,24 @@
         <v>59</v>
       </c>
       <c r="J97" s="21">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C98" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D98" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E98" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F98" s="16">
         <v>21</v>
@@ -3881,24 +3887,24 @@
         <v>58</v>
       </c>
       <c r="J98" s="21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C99" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D99" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E99" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F99" s="16">
         <v>21</v>
@@ -3913,123 +3919,123 @@
         <v>59</v>
       </c>
       <c r="J99" s="21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C100" s="7">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D100" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E100" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F100" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I100" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J100" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C101" s="7">
+        <v>29</v>
+      </c>
+      <c r="D101" s="16">
+        <v>12</v>
+      </c>
+      <c r="E101" s="16">
+        <v>16</v>
+      </c>
+      <c r="F101" s="16">
+        <v>18</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J101" s="21">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="7">
         <v>48</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D102" s="16">
         <v>9</v>
       </c>
-      <c r="E101" s="16">
-        <v>14</v>
-      </c>
-      <c r="F101" s="16">
-        <v>20</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I101" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J101" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="E102" s="16">
+        <v>10</v>
+      </c>
+      <c r="F102" s="16">
+        <v>21</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="7">
-        <v>32</v>
-      </c>
-      <c r="D102" s="16">
-        <v>1</v>
-      </c>
-      <c r="E102" s="16">
-        <v>4</v>
-      </c>
-      <c r="F102" s="16">
-        <v>20</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I102" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J102" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C103" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D103" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E103" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F103" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>55</v>
@@ -4044,157 +4050,137 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="17" t="s">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" s="19">
-        <v>8</v>
-      </c>
-      <c r="E104" s="19">
-        <v>11</v>
-      </c>
-      <c r="F104" s="19">
-        <v>26</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>54</v>
+      <c r="C104" s="7">
+        <v>48</v>
+      </c>
+      <c r="D104" s="16">
+        <v>9</v>
+      </c>
+      <c r="E104" s="16">
+        <v>14</v>
+      </c>
+      <c r="F104" s="16">
+        <v>20</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I104" s="20" t="s">
         <v>58</v>
       </c>
       <c r="J104" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="7">
+        <v>48</v>
+      </c>
+      <c r="D105" s="16">
+        <v>9</v>
+      </c>
+      <c r="E105" s="16">
+        <v>14</v>
+      </c>
+      <c r="F105" s="16">
+        <v>20</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J105" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="7">
+        <v>32</v>
+      </c>
+      <c r="D106" s="16">
+        <v>1</v>
+      </c>
+      <c r="E106" s="16">
+        <v>4</v>
+      </c>
+      <c r="F106" s="16">
+        <v>20</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J106" s="21">
         <v>3</v>
       </c>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-    </row>
-    <row r="105" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" s="17" t="s">
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="19">
-        <v>8</v>
-      </c>
-      <c r="E105" s="19">
-        <v>11</v>
-      </c>
-      <c r="F105" s="19">
-        <v>26</v>
-      </c>
-      <c r="G105" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J105" s="21">
-        <v>3</v>
-      </c>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-    </row>
-    <row r="106" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" s="19">
-        <v>10</v>
-      </c>
-      <c r="E106" s="19">
-        <v>14</v>
-      </c>
-      <c r="F106" s="19">
-        <v>23</v>
-      </c>
-      <c r="G106" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I106" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J106" s="21">
+      <c r="C107" s="7">
+        <v>32</v>
+      </c>
+      <c r="D107" s="16">
+        <v>1</v>
+      </c>
+      <c r="E107" s="16">
+        <v>4</v>
+      </c>
+      <c r="F107" s="16">
+        <v>20</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J107" s="21">
         <v>3.5</v>
       </c>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-    </row>
-    <row r="107" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" s="19">
-        <v>10</v>
-      </c>
-      <c r="E107" s="19">
-        <v>14</v>
-      </c>
-      <c r="F107" s="19">
-        <v>23</v>
-      </c>
-      <c r="G107" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="I107" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J107" s="21">
-        <v>3</v>
-      </c>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
-      <c r="O107" s="21"/>
     </row>
     <row r="108" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>45</v>
@@ -4203,16 +4189,16 @@
         <v>52</v>
       </c>
       <c r="D108" s="19">
+        <v>8</v>
+      </c>
+      <c r="E108" s="19">
         <v>11</v>
       </c>
-      <c r="E108" s="19">
-        <v>14</v>
-      </c>
       <c r="F108" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H108" s="17" t="s">
         <v>54</v>
@@ -4231,7 +4217,7 @@
     </row>
     <row r="109" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>45</v>
@@ -4240,16 +4226,16 @@
         <v>52</v>
       </c>
       <c r="D109" s="19">
+        <v>8</v>
+      </c>
+      <c r="E109" s="19">
         <v>11</v>
       </c>
-      <c r="E109" s="19">
-        <v>14</v>
-      </c>
       <c r="F109" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H109" s="17" t="s">
         <v>54</v>
@@ -4258,7 +4244,7 @@
         <v>59</v>
       </c>
       <c r="J109" s="21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
@@ -4268,7 +4254,7 @@
     </row>
     <row r="110" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B110" s="17" t="s">
         <v>45</v>
@@ -4277,13 +4263,13 @@
         <v>52</v>
       </c>
       <c r="D110" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E110" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F110" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G110" s="17" t="s">
         <v>55</v>
@@ -4295,7 +4281,7 @@
         <v>58</v>
       </c>
       <c r="J110" s="21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
@@ -4305,7 +4291,7 @@
     </row>
     <row r="111" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>45</v>
@@ -4314,13 +4300,13 @@
         <v>52</v>
       </c>
       <c r="D111" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E111" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F111" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G111" s="17" t="s">
         <v>55</v>
@@ -4342,7 +4328,7 @@
     </row>
     <row r="112" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B112" s="17" t="s">
         <v>45</v>
@@ -4351,10 +4337,10 @@
         <v>52</v>
       </c>
       <c r="D112" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F112" s="19">
         <v>18</v>
@@ -4369,7 +4355,7 @@
         <v>58</v>
       </c>
       <c r="J112" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K112" s="21"/>
       <c r="L112" s="21"/>
@@ -4379,7 +4365,7 @@
     </row>
     <row r="113" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B113" s="17" t="s">
         <v>45</v>
@@ -4388,10 +4374,10 @@
         <v>52</v>
       </c>
       <c r="D113" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E113" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F113" s="19">
         <v>18</v>
@@ -4406,7 +4392,7 @@
         <v>59</v>
       </c>
       <c r="J113" s="21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
@@ -4416,7 +4402,7 @@
     </row>
     <row r="114" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B114" s="17" t="s">
         <v>45</v>
@@ -4425,10 +4411,10 @@
         <v>52</v>
       </c>
       <c r="D114" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E114" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F114" s="19">
         <v>18</v>
@@ -4443,7 +4429,7 @@
         <v>58</v>
       </c>
       <c r="J114" s="21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
@@ -4453,7 +4439,7 @@
     </row>
     <row r="115" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B115" s="17" t="s">
         <v>45</v>
@@ -4462,10 +4448,10 @@
         <v>52</v>
       </c>
       <c r="D115" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E115" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F115" s="19">
         <v>18</v>
@@ -4480,7 +4466,7 @@
         <v>59</v>
       </c>
       <c r="J115" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115" s="21"/>
       <c r="L115" s="21"/>
@@ -4490,7 +4476,7 @@
     </row>
     <row r="116" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>45</v>
@@ -4499,10 +4485,10 @@
         <v>52</v>
       </c>
       <c r="D116" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E116" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F116" s="19">
         <v>18</v>
@@ -4517,7 +4503,7 @@
         <v>58</v>
       </c>
       <c r="J116" s="21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K116" s="21"/>
       <c r="L116" s="21"/>
@@ -4527,7 +4513,7 @@
     </row>
     <row r="117" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B117" s="17" t="s">
         <v>45</v>
@@ -4536,10 +4522,10 @@
         <v>52</v>
       </c>
       <c r="D117" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E117" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F117" s="19">
         <v>18</v>
@@ -4562,6 +4548,154 @@
       <c r="N117" s="21"/>
       <c r="O117" s="21"/>
     </row>
+    <row r="118" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="19">
+        <v>12</v>
+      </c>
+      <c r="E118" s="19">
+        <v>14</v>
+      </c>
+      <c r="F118" s="19">
+        <v>18</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J118" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+    </row>
+    <row r="119" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="19">
+        <v>12</v>
+      </c>
+      <c r="E119" s="19">
+        <v>14</v>
+      </c>
+      <c r="F119" s="19">
+        <v>18</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J119" s="21">
+        <v>2</v>
+      </c>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+    </row>
+    <row r="120" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="19">
+        <v>11</v>
+      </c>
+      <c r="E120" s="19">
+        <v>15</v>
+      </c>
+      <c r="F120" s="19">
+        <v>18</v>
+      </c>
+      <c r="G120" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H120" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J120" s="21">
+        <v>10</v>
+      </c>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+    </row>
+    <row r="121" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="19">
+        <v>11</v>
+      </c>
+      <c r="E121" s="19">
+        <v>15</v>
+      </c>
+      <c r="F121" s="19">
+        <v>18</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H121" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J121" s="21">
+        <v>5</v>
+      </c>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
